--- a/notes/SelamaTourism/ganttchart.xlsx
+++ b/notes/SelamaTourism/ganttchart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -80,15 +80,6 @@
   </si>
   <si>
     <t>Tesis</t>
-  </si>
-  <si>
-    <t>Pembentangan</t>
-  </si>
-  <si>
-    <t>IPE</t>
-  </si>
-  <si>
-    <t>PA</t>
   </si>
   <si>
     <t>`</t>
@@ -588,10 +579,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:V53"/>
+  <dimension ref="B2:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1073,7 @@
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
       <c r="C24" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1213,7 +1204,7 @@
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
       <c r="C30" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1222,7 +1213,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -1435,7 +1426,7 @@
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
       <c r="C40" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1503,54 +1494,14 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="3">
-        <v>5</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>23</v>
-      </c>
-      <c r="T51" s="5"/>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>24</v>
-      </c>
-      <c r="V53" s="5"/>
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="38">
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="C42:T42"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C50:V50"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="B20:B21"/>
